--- a/HC_Jenny.xlsx
+++ b/HC_Jenny.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T3/MDC/HCV_cobasVSAmpliprep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T3/MDC/LabValidationPlots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4F1AE-547C-8849-8B68-EE054B16E224}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF28061-E877-ED45-86AA-F7C70650759A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="460" windowWidth="27320" windowHeight="16540" activeTab="1" xr2:uid="{04326F0C-7C08-8D42-BC95-29ADEDFF74FC}"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="27320" windowHeight="16540" xr2:uid="{04326F0C-7C08-8D42-BC95-29ADEDFF74FC}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_code" sheetId="1" r:id="rId1"/>
     <sheet name="StdComparison_raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_code!$A$1:$G$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_code!$A$1:$F$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StdComparison_raw!$A$1:$J$34</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,18 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
   <si>
     <t>Run date</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>MJ</t>
   </si>
   <si>
     <t>Run</t>
@@ -88,6 +82,12 @@
   <si>
     <t>tm_IC_Ct</t>
   </si>
+  <si>
+    <t>Differencebetween2measuresinlog</t>
+  </si>
+  <si>
+    <t>Meanof2measures</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,17 +140,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -224,15 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,6 +233,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,31 +257,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,31 +278,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -667,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04FAEC5-D521-AA4C-A92B-76C34C02D655}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -679,1538 +662,2022 @@
     <col min="3" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>5170000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>6.76</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3480000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f t="shared" ref="E2:E8" si="0">LOG(D2)</f>
         <v>6.5415792439465807</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>42579</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="G2" s="43">
+        <f>C2-E2</f>
+        <v>0.21842075605341904</v>
+      </c>
+      <c r="H2">
+        <f>(C2+E2)/2</f>
+        <v>6.6507896219732903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1440000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6.16</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>977000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>5.9898945637187735</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>42579</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="G3" s="43">
+        <f t="shared" ref="G3:G66" si="1">C3-E3</f>
+        <v>0.17010543628122665</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">(C3+E3)/2</f>
+        <v>6.0749472818593873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>15</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>42579</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="G4" s="43">
+        <f t="shared" si="1"/>
+        <v>3.9087409443185894E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.1780456295278405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>6070000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6.78</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2960000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>6.4712917110589387</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42579</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="G5" s="43">
+        <f t="shared" si="1"/>
+        <v>0.3087082889410615</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>6.6256458555294699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>535000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5.73</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>999000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>5.9995654882259819</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>42579</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="G6" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.26956548822598148</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>5.8647827441129916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4960</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5600</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>3.7481880270062002</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>42579</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="G7" s="43">
+        <f t="shared" si="1"/>
+        <v>-4.8188027006200063E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.7240940135031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>124</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2.09</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>179</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>2.2528530309798933</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>42579</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="G8" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.16285303097989345</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2.1714265154899466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>42579</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="G9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>819000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5.91</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1360000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>LOG(D10)</f>
         <v>6.1335389083702179</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>42579</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="G10" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.22353890837021773</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>6.021769454185109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2740000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6.44</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>5440000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>LOG(D11)</f>
         <v>6.7355988996981795</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>42579</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="G11" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.2955988996981791</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>6.5877994498490899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>15</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>LOG(D12)</f>
         <v>1.1760912590556813</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>42579</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="G12" s="43">
+        <f t="shared" si="1"/>
+        <v>3.9087409443185894E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.1780456295278405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>51600</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.71</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>87600</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f>LOG(D13)</f>
         <v>4.942504106168081</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>42579</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="G13" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.23250410616808104</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>4.8262520530840405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
         <v>42579</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="G14" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>4700000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6.67</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>9480000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>LOG(D15)</f>
         <v>6.976808337338066</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>42579</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="G15" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.30680833733806612</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>6.8234041686690325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>43900</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>32800</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>LOG(D16)</f>
         <v>4.5158738437116792</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>42579</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="G16" s="43">
+        <f t="shared" si="1"/>
+        <v>0.12412615628832047</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>4.577936921855839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1.18</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>LOG(D17)</f>
         <v>1.2148438480476977</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>42579</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="G17" s="43">
+        <f t="shared" si="1"/>
+        <v>-3.4843848047697801E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.1974219240238488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>185</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2.27</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>121</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f>LOG(D18)</f>
         <v>2.0827853703164503</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>42579</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="G18" s="43">
+        <f t="shared" si="1"/>
+        <v>0.18721462968354974</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.1763926851582251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1.18</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>42579</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="G19" s="43">
+        <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1550000</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>6.19</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2790000</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" ref="E20:E34" si="1">LOG(D20)</f>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:E34" si="3">LOG(D20)</f>
         <v>6.4456042032735974</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>42579</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="G20" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.25560420327359701</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>6.3178021016367989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>12300000</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>7.09</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>12300000</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="1"/>
+      <c r="E21" s="9">
+        <f t="shared" si="3"/>
         <v>7.0899051114393981</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>42579</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="G21" s="43">
+        <f t="shared" si="1"/>
+        <v>9.4888560601802396E-5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>7.089952555719699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>4260000</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>6.63</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>8930000</v>
       </c>
-      <c r="E22" s="14">
-        <f t="shared" si="1"/>
+      <c r="E22" s="13">
+        <f t="shared" si="3"/>
         <v>6.9508514588885468</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>42584</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="G22" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.32085145888854694</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>6.7904257294442729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>4350000</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>6.64</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>7840000</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
         <v>6.8943160626844389</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>42584</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="G23" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.25431606268443918</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>6.7671580313422197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>506000</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>5.7</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>983000</v>
       </c>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
         <v>5.9925535178321354</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>42584</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="G24" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.29255351783213523</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>5.8462767589160674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>4910000</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>6.69</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>6120000</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
         <v>6.7867514221455609</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>42584</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="G25" s="43">
+        <f t="shared" si="1"/>
+        <v>-9.6751422145560539E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>6.7383757110727807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>63500</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>4.8</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>135000</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
         <v>5.1303337684950066</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>42584</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="G26" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.33033376849500673</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>4.9651668842475036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>4120000</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>6.62</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>3140000</v>
       </c>
-      <c r="E27" s="6">
-        <f t="shared" si="1"/>
+      <c r="E27" s="5">
+        <f t="shared" si="3"/>
         <v>6.4969296480732153</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>42584</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="G27" s="43">
+        <f t="shared" si="1"/>
+        <v>0.12307035192678484</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>6.5584648240366077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>5390000</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>6.73</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>8740000</v>
       </c>
-      <c r="E28" s="6">
-        <f t="shared" si="1"/>
+      <c r="E28" s="5">
+        <f t="shared" si="3"/>
         <v>6.9415114326344032</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>42584</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="G28" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.21151143263440275</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>6.8357557163172018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>6100000</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>6.79</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>7090000</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" si="1"/>
+      <c r="E29" s="5">
+        <f t="shared" si="3"/>
         <v>6.8506462351830661</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>42584</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="G29" s="43">
+        <f t="shared" si="1"/>
+        <v>-6.0646235183066111E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>6.8203231175915331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>3060000</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>6.49</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>3700000</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" si="1"/>
+      <c r="E30" s="5">
+        <f t="shared" si="3"/>
         <v>6.568201724066995</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>42584</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="G30" s="43">
+        <f t="shared" si="1"/>
+        <v>-7.8201724066994771E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>6.5291008620334976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>3160000</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>6.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>5210000</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="1"/>
+      <c r="E31" s="5">
+        <f t="shared" si="3"/>
         <v>6.7168377232995242</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>42584</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="G31" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.21683772329952422</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>6.6084188616497617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>2670000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>6.43</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>7190000</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" si="1"/>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
         <v>6.8567288903828825</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>42584</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="G32" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.42672889038288275</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>6.6433644451914411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>6760000</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>6.83</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>11300000</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="1"/>
+      <c r="E33" s="5">
+        <f t="shared" si="3"/>
         <v>7.0530784434834199</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>42584</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="G33" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.22307844348341987</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>6.94153922174171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>13000000</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>7.12</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>23500000</v>
       </c>
-      <c r="E34" s="16">
-        <f t="shared" si="1"/>
+      <c r="E34" s="15">
+        <f t="shared" si="3"/>
         <v>7.3710678622717358</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>42584</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="G34" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.25106786227173572</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>7.245533931135868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>15</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1.18</v>
       </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
         <v>42584</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="G35" s="43">
+        <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>1650000</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>6.22</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>2850000</v>
       </c>
-      <c r="E36" s="14">
-        <f t="shared" ref="E36:E41" si="2">LOG(D36)</f>
+      <c r="E36" s="13">
+        <f t="shared" ref="E36:E41" si="4">LOG(D36)</f>
         <v>6.4548448600085102</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>42584</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="G36" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.23484486000851046</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>6.3374224300042545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>6440000</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>6.81</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>4260000</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="2"/>
+      <c r="E37" s="5">
+        <f t="shared" si="4"/>
         <v>6.6294095991027193</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>42584</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="G37" s="43">
+        <f t="shared" si="1"/>
+        <v>0.18059040089728029</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>6.7197047995513595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>33600</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>4.53</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>34500</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="2"/>
+      <c r="E38" s="5">
+        <f t="shared" si="4"/>
         <v>4.5378190950732744</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>42584</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="G38" s="43">
+        <f t="shared" si="1"/>
+        <v>-7.8190950732741626E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>4.5339095475366378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>2290000</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>6.36</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>3700000</v>
       </c>
-      <c r="E39" s="6">
-        <f t="shared" si="2"/>
+      <c r="E39" s="5">
+        <f t="shared" si="4"/>
         <v>6.568201724066995</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>42584</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="G39" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.20820172406699466</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>6.4641008620334972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>1370000</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>6.14</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1960000</v>
       </c>
-      <c r="E40" s="6">
-        <f t="shared" si="2"/>
+      <c r="E40" s="5">
+        <f t="shared" si="4"/>
         <v>6.2922560713564764</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>42584</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="G40" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.15225607135647667</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>6.2161280356782385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>5000000</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>6.7</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>9120000</v>
       </c>
-      <c r="E41" s="6">
-        <f t="shared" si="2"/>
+      <c r="E41" s="5">
+        <f t="shared" si="4"/>
         <v>6.9599948383284165</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>42584</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="G41" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.2599948383284163</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>6.8299974191642079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>15</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>1.18</v>
       </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
         <v>42584</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="12">
+      <c r="G42" s="43">
+        <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="20">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15">
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
         <v>42682</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="G43" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
         <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="20">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <v>42682</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="G44" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="20">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
         <v>42682</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="G45" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>941000</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>5.97</v>
       </c>
       <c r="D46" s="2">
         <v>665000</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <f>LOG(D46)</f>
         <v>5.8228216453031045</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>42682</v>
       </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="G46" s="43">
+        <f t="shared" si="1"/>
+        <v>0.14717835469689522</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>5.8964108226515517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="20">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
         <v>42682</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="G47" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
         <v>0</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="20">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
         <v>42682</v>
       </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="G48" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="20">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
         <v>42682</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="G49" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
         <v>0</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="20">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
         <v>42682</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="G50" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
         <v>0</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="20">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
         <v>42682</v>
       </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="G51" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>20900</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>4.32</v>
       </c>
       <c r="D52" s="2">
         <v>14800</v>
       </c>
-      <c r="E52" s="20">
-        <f t="shared" ref="E52:E58" si="3">LOG(D52)</f>
+      <c r="E52" s="19">
+        <f t="shared" ref="E52:E58" si="5">LOG(D52)</f>
         <v>4.1702617153949575</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>42682</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="G52" s="43">
+        <f t="shared" si="1"/>
+        <v>0.14973828460504279</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>4.2451308576974789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>68500</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>4.8499999999999996</v>
       </c>
       <c r="D53" s="2">
         <v>66300</v>
       </c>
-      <c r="E53" s="20">
-        <f t="shared" si="3"/>
+      <c r="E53" s="19">
+        <f t="shared" si="5"/>
         <v>4.8215135284047728</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>42682</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="G53" s="43">
+        <f t="shared" si="1"/>
+        <v>2.8486471595226881E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>4.8357567642023866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>879</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>2.94</v>
       </c>
       <c r="D54" s="2">
         <v>819</v>
       </c>
-      <c r="E54" s="20">
-        <f t="shared" si="3"/>
+      <c r="E54" s="19">
+        <f t="shared" si="5"/>
         <v>2.9132839017604186</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>42682</v>
       </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="G54" s="43">
+        <f t="shared" si="1"/>
+        <v>2.6716098239581321E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>2.9266419508802093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>14200000</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>7.15</v>
       </c>
       <c r="D55" s="2">
         <v>21300000</v>
       </c>
-      <c r="E55" s="20">
-        <f t="shared" si="3"/>
+      <c r="E55" s="19">
+        <f t="shared" si="5"/>
         <v>7.3283796034387381</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>42682</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="G55" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.17837960343873771</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>7.2391898017193697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>11300000</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>7.05</v>
       </c>
       <c r="D56" s="2">
         <v>12500000</v>
       </c>
-      <c r="E56" s="20">
-        <f t="shared" si="3"/>
+      <c r="E56" s="19">
+        <f t="shared" si="5"/>
         <v>7.0969100130080562</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>42682</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="G56" s="43">
+        <f t="shared" si="1"/>
+        <v>-4.6910013008056417E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>7.0734550065040285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>307</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>2.4900000000000002</v>
       </c>
       <c r="D57" s="2">
         <v>63.2</v>
       </c>
-      <c r="E57" s="20">
-        <f t="shared" si="3"/>
+      <c r="E57" s="19">
+        <f t="shared" si="5"/>
         <v>1.8007170782823851</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>42682</v>
       </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="G57" s="43">
+        <f t="shared" si="1"/>
+        <v>0.68928292171761507</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>2.1453585391411929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>22200</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>4.3499999999999996</v>
       </c>
       <c r="D58" s="2">
         <v>13300</v>
       </c>
-      <c r="E58" s="20">
-        <f t="shared" si="3"/>
+      <c r="E58" s="19">
+        <f t="shared" si="5"/>
         <v>4.1238516409670858</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>42682</v>
       </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="G58" s="43">
+        <f t="shared" si="1"/>
+        <v>0.22614835903291386</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>4.2369258204835427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>583</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="21">
         <v>2.77</v>
       </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="24">
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
         <v>42682</v>
       </c>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="G59" s="43">
+        <f t="shared" si="1"/>
+        <v>2.77</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>3480</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>3.54</v>
       </c>
       <c r="D60" s="2">
         <v>1450</v>
       </c>
-      <c r="E60" s="20">
-        <f t="shared" ref="E60:E65" si="4">LOG(D60)</f>
+      <c r="E60" s="19">
+        <f t="shared" ref="E60:E65" si="6">LOG(D60)</f>
         <v>3.1613680022349748</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>42682</v>
       </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="G60" s="43">
+        <f t="shared" si="1"/>
+        <v>0.37863199776502521</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>3.3506840011174877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>6480</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>3.81</v>
       </c>
       <c r="D61" s="2">
         <v>8770</v>
       </c>
-      <c r="E61" s="20">
-        <f t="shared" si="4"/>
+      <c r="E61" s="19">
+        <f t="shared" si="6"/>
         <v>3.9429995933660407</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>42682</v>
       </c>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="G61" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.13299959336604061</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>3.8764997966830204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>42300</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>4.63</v>
       </c>
       <c r="D62" s="2">
         <v>28700</v>
       </c>
-      <c r="E62" s="20">
-        <f t="shared" si="4"/>
+      <c r="E62" s="19">
+        <f t="shared" si="6"/>
         <v>4.4578818967339924</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>42682</v>
       </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="G62" s="43">
+        <f t="shared" si="1"/>
+        <v>0.17211810326600752</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>4.5439409483669966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>25200000</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>7.4</v>
       </c>
       <c r="D63" s="2">
         <v>48800000</v>
       </c>
-      <c r="E63" s="20">
-        <f t="shared" si="4"/>
+      <c r="E63" s="19">
+        <f t="shared" si="6"/>
         <v>7.6884198220027109</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <v>42682</v>
       </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="G63" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.28841982200271055</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>7.5442099110013556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>323000</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>5.51</v>
       </c>
       <c r="D64" s="2">
         <v>466000</v>
       </c>
-      <c r="E64" s="20">
-        <f t="shared" si="4"/>
+      <c r="E64" s="19">
+        <f t="shared" si="6"/>
         <v>5.6683859166900001</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>42682</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="G64" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.15838591669000035</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>5.5891929583450004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>17</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>1.23</v>
       </c>
       <c r="D65" s="2">
         <v>39.700000000000003</v>
       </c>
-      <c r="E65" s="20">
-        <f t="shared" si="4"/>
+      <c r="E65" s="19">
+        <f t="shared" si="6"/>
         <v>1.5987905067631152</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <v>42682</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="G65" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.3687905067631152</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>1.4143952533815576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>15</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>1.18</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="20">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
         <v>42682</v>
       </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="G66" s="43">
+        <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>15</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>1.18</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E67" s="20">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
         <v>42682</v>
       </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="G67" s="43">
+        <f t="shared" ref="G67:G113" si="7">C67-E67</f>
+        <v>1.18</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H113" si="8">(C67+E67)/2</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>3480000</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>6.54</v>
       </c>
       <c r="D68" s="2">
         <v>3680000</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <f>LOG(D68)</f>
         <v>6.5658478186735181</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>42682</v>
       </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="G68" s="43">
+        <f t="shared" si="7"/>
+        <v>-2.5847818673518042E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>6.5529239093367586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>2220000</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>6.35</v>
       </c>
       <c r="D69" s="2">
         <v>2390000</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <f>LOG(D69)</f>
         <v>6.378397900948138</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>42682</v>
       </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="G69" s="43">
+        <f t="shared" si="7"/>
+        <v>-2.8397900948138322E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>6.3641989504740692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
         <v>0</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="20">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
         <v>42682</v>
       </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="G70" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -2222,16 +2689,23 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="20">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
+      <c r="E71" s="19">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
         <v>42682</v>
       </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="G71" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -2243,16 +2717,23 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="20">
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="E72" s="19">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
         <v>42682</v>
       </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="G72" s="43">
+        <f t="shared" si="7"/>
+        <v>1.18</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="2">
@@ -2264,17 +2745,24 @@
       <c r="D73" s="2">
         <v>1390000</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="19">
         <f>LOG(D73)</f>
         <v>6.143014800254095</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>42682</v>
       </c>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="G73" s="43">
+        <f t="shared" si="7"/>
+        <v>4.6985199745905426E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>6.1665074001270472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="2">
@@ -2286,17 +2774,24 @@
       <c r="D74" s="2">
         <v>396000</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <f>LOG(D74)</f>
         <v>5.5976951859255122</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>42682</v>
       </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="G74" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.10769518592551197</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>5.5438475929627558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="2">
@@ -2308,17 +2803,24 @@
       <c r="D75" s="2">
         <v>24000</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <f>LOG(D75)</f>
         <v>4.3802112417116064</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <v>42682</v>
       </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="G75" s="43">
+        <f t="shared" si="7"/>
+        <v>-1.0211241711606256E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>4.3751056208558037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -2330,16 +2832,23 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="20">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E76" s="19">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
         <v>42682</v>
       </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="G76" s="43">
+        <f t="shared" si="7"/>
+        <v>1.18</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="2">
@@ -2351,17 +2860,24 @@
       <c r="D77" s="2">
         <v>428000</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <f>LOG(D77)</f>
         <v>5.6314437690131722</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <v>42682</v>
       </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="G77" s="43">
+        <f t="shared" si="7"/>
+        <v>-1.3214437690131726</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="8"/>
+        <v>4.9707218845065864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="2">
@@ -2373,16 +2889,23 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="20">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
         <v>42682</v>
       </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="G78" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="2">
@@ -2394,17 +2917,24 @@
       <c r="D79" s="2">
         <v>12100</v>
       </c>
-      <c r="E79" s="20">
-        <f t="shared" ref="E79:E84" si="5">LOG(D79)</f>
+      <c r="E79" s="19">
+        <f t="shared" ref="E79:E84" si="9">LOG(D79)</f>
         <v>4.0827853703164498</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <v>42682</v>
       </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="G79" s="43">
+        <f t="shared" si="7"/>
+        <v>-5.2785370316449587E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>4.056392685158225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="2">
@@ -2416,17 +2946,24 @@
       <c r="D80" s="2">
         <v>14900000</v>
       </c>
-      <c r="E80" s="20">
-        <f t="shared" si="5"/>
+      <c r="E80" s="19">
+        <f t="shared" si="9"/>
         <v>7.173186268412274</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <v>42682</v>
       </c>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="G80" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.41318626841227424</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="8"/>
+        <v>6.9665931342061373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="2">
@@ -2438,17 +2975,24 @@
       <c r="D81" s="2">
         <v>63.4</v>
       </c>
-      <c r="E81" s="20">
-        <f t="shared" si="5"/>
+      <c r="E81" s="19">
+        <f t="shared" si="9"/>
         <v>1.8020892578817327</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <v>42682</v>
       </c>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="G81" s="43">
+        <f t="shared" si="7"/>
+        <v>0.22791074211826712</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="8"/>
+        <v>1.9160446289408664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="2">
@@ -2460,17 +3004,24 @@
       <c r="D82" s="2">
         <v>16200000</v>
       </c>
-      <c r="E82" s="20">
-        <f t="shared" si="5"/>
+      <c r="E82" s="19">
+        <f t="shared" si="9"/>
         <v>7.2095150145426308</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <v>42682</v>
       </c>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="G82" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.10951501454263113</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="8"/>
+        <v>7.1547575072713148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="2">
@@ -2482,17 +3033,24 @@
       <c r="D83" s="2">
         <v>2130000</v>
       </c>
-      <c r="E83" s="20">
-        <f t="shared" si="5"/>
+      <c r="E83" s="19">
+        <f t="shared" si="9"/>
         <v>6.3283796034387381</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <v>42682</v>
       </c>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="G83" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.25837960343873778</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="8"/>
+        <v>6.1991898017193687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="2">
@@ -2504,17 +3062,24 @@
       <c r="D84" s="2">
         <v>162000</v>
       </c>
-      <c r="E84" s="20">
-        <f t="shared" si="5"/>
+      <c r="E84" s="19">
+        <f t="shared" si="9"/>
         <v>5.2095150145426308</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <v>42682</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="G84" s="43">
+        <f t="shared" si="7"/>
+        <v>-7.951501454263088E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>5.1697575072713153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -2526,16 +3091,23 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="20">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
+      <c r="E85" s="19">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6">
         <v>42682</v>
       </c>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="G85" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="2">
@@ -2547,17 +3119,24 @@
       <c r="D86" s="2">
         <v>3780000</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="19">
         <f>LOG(D86)</f>
         <v>6.5774917998372251</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <v>42682</v>
       </c>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="G86" s="43">
+        <f t="shared" si="7"/>
+        <v>-3.7491799837225059E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>6.5587458999186126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="2">
@@ -2569,62 +3148,81 @@
       <c r="D87" s="2">
         <v>42600</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <f>LOG(D87)</f>
         <v>4.6294095991027193</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <v>42682</v>
       </c>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="G87" s="43">
+        <f t="shared" si="7"/>
+        <v>-9.9409599102719071E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>4.5797047995513598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="25">
+      <c r="B88" s="24">
         <v>15</v>
       </c>
-      <c r="C88" s="25">
+      <c r="C88" s="24">
         <v>1.18</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="25">
         <v>20.9</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="26">
         <f>LOG(D88)</f>
         <v>1.320146286111054</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>42682</v>
       </c>
-      <c r="G88" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="G88" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.14014628611105406</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>1.250073143055527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="29">
-        <v>0</v>
-      </c>
-      <c r="C89" s="29">
-        <v>0</v>
-      </c>
-      <c r="D89" s="30">
-        <v>0</v>
-      </c>
-      <c r="E89" s="30">
-        <v>0</v>
-      </c>
-      <c r="F89" s="31">
+      <c r="B89" s="27">
+        <v>0</v>
+      </c>
+      <c r="C89" s="27">
+        <v>0</v>
+      </c>
+      <c r="D89" s="28">
+        <v>0</v>
+      </c>
+      <c r="E89" s="28">
+        <v>0</v>
+      </c>
+      <c r="F89" s="29">
         <v>43160</v>
       </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="G89" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -2639,13 +3237,20 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="F90" s="32">
+      <c r="F90" s="30">
         <v>43160</v>
       </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="G90" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -2660,13 +3265,20 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="32">
+      <c r="F91" s="30">
         <v>43161</v>
       </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="G91" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -2681,13 +3293,20 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="30">
         <v>43161</v>
       </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="G92" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -2702,13 +3321,20 @@
       <c r="E93" s="1">
         <v>0</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F93" s="30">
         <v>43161</v>
       </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="G93" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="1">
@@ -2723,13 +3349,20 @@
       <c r="E94" s="1">
         <v>0</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F94" s="30">
         <v>43161</v>
       </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="G94" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -2744,13 +3377,20 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F95" s="30">
         <v>43164</v>
       </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="G95" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="1">
@@ -2765,13 +3405,20 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F96" s="30">
         <v>43164</v>
       </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="G96" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -2786,13 +3433,20 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="30">
         <v>43164</v>
       </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="G97" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="1">
@@ -2807,13 +3461,20 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F98" s="30">
         <v>43153</v>
       </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="G98" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -2828,13 +3489,20 @@
       <c r="E99" s="1">
         <v>0</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="30">
         <v>43153</v>
       </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="G99" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="1">
@@ -2849,13 +3517,20 @@
       <c r="E100" s="1">
         <v>0</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F100" s="30">
         <v>43153</v>
       </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="G100" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="1">
@@ -2870,13 +3545,20 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="30">
         <v>43154</v>
       </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="G101" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="1">
@@ -2891,13 +3573,20 @@
       <c r="E102" s="1">
         <v>0</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F102" s="30">
         <v>43154</v>
       </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="G102" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="1">
@@ -2912,13 +3601,20 @@
       <c r="E103" s="1">
         <v>0</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F103" s="30">
         <v>43154</v>
       </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="G103" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -2933,13 +3629,20 @@
       <c r="E104" s="1">
         <v>0</v>
       </c>
-      <c r="F104" s="32">
+      <c r="F104" s="30">
         <v>43154</v>
       </c>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="G104" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="1">
@@ -2954,13 +3657,20 @@
       <c r="E105" s="1">
         <v>0</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F105" s="30">
         <v>43157</v>
       </c>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="G105" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -2975,13 +3685,20 @@
       <c r="E106" s="1">
         <v>0</v>
       </c>
-      <c r="F106" s="32">
+      <c r="F106" s="30">
         <v>43157</v>
       </c>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="G106" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="1">
@@ -2996,13 +3713,20 @@
       <c r="E107" s="1">
         <v>0</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F107" s="30">
         <v>43157</v>
       </c>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="G107" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="2">
@@ -3017,13 +3741,20 @@
       <c r="E108" s="1">
         <v>5.76</v>
       </c>
-      <c r="F108" s="32">
+      <c r="F108" s="30">
         <v>43161</v>
       </c>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="4">
+      <c r="G108" s="43">
+        <f t="shared" si="7"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="8"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="2">
@@ -3038,13 +3769,20 @@
       <c r="E109" s="1">
         <v>6.19</v>
       </c>
-      <c r="F109" s="32">
+      <c r="F109" s="30">
         <v>43161</v>
       </c>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="G109" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.11000000000000032</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="8"/>
+        <v>6.1349999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -3059,13 +3797,20 @@
       <c r="E110" s="1">
         <v>0</v>
       </c>
-      <c r="F110" s="32">
+      <c r="F110" s="30">
         <v>43157</v>
       </c>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="4">
+      <c r="G110" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="1">
@@ -3080,13 +3825,20 @@
       <c r="E111" s="1">
         <v>0</v>
       </c>
-      <c r="F111" s="32">
+      <c r="F111" s="30">
         <v>43157</v>
       </c>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="G111" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="2">
@@ -3101,13 +3853,20 @@
       <c r="E112" s="1">
         <v>3.95</v>
       </c>
-      <c r="F112" s="32">
+      <c r="F112" s="30">
         <v>43157</v>
       </c>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="G112" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.81</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="8"/>
+        <v>3.5449999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="2">
@@ -3122,10 +3881,17 @@
       <c r="E113" s="1">
         <v>6.24</v>
       </c>
-      <c r="F113" s="32">
+      <c r="F113" s="30">
         <v>43157</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="43">
+        <f t="shared" si="7"/>
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="8"/>
+        <v>6.1750000000000007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3137,21 +3903,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C611E4-A713-3D45-8D32-6E06941BFB64}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="33" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="43" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="253" max="254" width="13.6640625" customWidth="1"/>
     <col min="256" max="256" width="16.5" customWidth="1"/>
@@ -3912,126 +4678,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="A1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>1E-10</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37">
+      <c r="C2" s="28"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <v>36.56</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37">
+      <c r="I2" s="36"/>
+      <c r="J2" s="35">
         <v>31.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37">
+      <c r="C3" s="28"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35">
         <v>36.42</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37">
+      <c r="I3" s="36"/>
+      <c r="J3" s="35">
         <v>31.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>1E-8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="39"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37">
+      <c r="C4" s="41"/>
+      <c r="D4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35">
         <v>37.03</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="37">
+      <c r="I4" s="36"/>
+      <c r="J4" s="35">
         <v>31.2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="39">
+      <c r="C5" s="41"/>
+      <c r="D5" s="37">
         <v>16.100000000000001</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F33" si="0">LOG10(D5)</f>
         <v>1.2068258760318498</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>38.020000000000003</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>36.46</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
         <v>31.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>43.4</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>68.900000000000006</v>
       </c>
       <c r="E6">
@@ -4042,30 +4808,30 @@
         <f t="shared" si="0"/>
         <v>1.8382192219076259</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>36.07</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>36.57</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="35">
         <v>36</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="35">
         <v>31.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>854</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>862</v>
       </c>
       <c r="E7">
@@ -4076,30 +4842,30 @@
         <f t="shared" si="0"/>
         <v>2.9355072658247128</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="35">
         <v>32.76</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>36.9</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="35">
         <v>32.9</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>1E-4</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>5590</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <v>11800</v>
       </c>
       <c r="E8">
@@ -4110,30 +4876,30 @@
         <f t="shared" si="0"/>
         <v>4.071882007306125</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <v>28.56</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>36.520000000000003</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <v>30.3</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <v>31.4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="33">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="32">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>42400</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="37">
         <v>141000</v>
       </c>
       <c r="E9">
@@ -4144,30 +4910,30 @@
         <f t="shared" si="0"/>
         <v>5.1492191126553797</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <v>25</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>36.619999999999997</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <v>27</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <v>30.7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>1</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>0.01</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>357000</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="37">
         <v>1370000</v>
       </c>
       <c r="E10">
@@ -4178,30 +4944,30 @@
         <f t="shared" si="0"/>
         <v>6.1367205671564067</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <v>21.04</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="38">
         <v>36.090000000000003</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <v>23.6</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <v>30.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>0.1</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>3460000</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>13500000</v>
       </c>
       <c r="E11">
@@ -4212,135 +4978,135 @@
         <f>LOG10(D11)</f>
         <v>7.1303337684950066</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <v>17.989999999999998</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="38">
         <v>36.53</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <v>19.8</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <v>29.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>1</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>46800000</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>7.6702458530741238</v>
+      </c>
+      <c r="G12" s="35">
+        <v>14.23</v>
+      </c>
+      <c r="H12" s="38">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="I12" s="35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J12" s="35">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
+        <v>2</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1E-10</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="28">
+        <v>37.31</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="35">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1E-8</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35">
+        <v>37.17</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>7.6702458530741238</v>
-      </c>
-      <c r="G12" s="37">
-        <v>14.23</v>
-      </c>
-      <c r="H12" s="40">
-        <v>36.270000000000003</v>
-      </c>
-      <c r="I12" s="37">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J12" s="37">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="33">
+      <c r="D16" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="35">
+        <v>39.18</v>
+      </c>
+      <c r="H16" s="35">
+        <v>37.07</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
         <v>2</v>
       </c>
-      <c r="B13" s="34">
-        <v>1E-10</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="39"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="40">
-        <v>36.840000000000003</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="33">
-        <v>2</v>
-      </c>
-      <c r="B14" s="34">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="30">
-        <v>37.31</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="37">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="33">
-        <v>2</v>
-      </c>
-      <c r="B15" s="34">
-        <v>1E-8</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37">
-        <v>37.17</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="33">
-        <v>2</v>
-      </c>
-      <c r="B16" s="34">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="37">
-        <v>39.18</v>
-      </c>
-      <c r="H16" s="37">
-        <v>37.07</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>71.5</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>92.4</v>
       </c>
       <c r="E17">
@@ -4351,30 +5117,30 @@
         <f t="shared" si="0"/>
         <v>1.9656719712201067</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>35.979999999999997</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <v>36.9</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="35">
         <v>35.799999999999997</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>2</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>859</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>912</v>
       </c>
       <c r="E18">
@@ -4385,30 +5151,30 @@
         <f t="shared" si="0"/>
         <v>2.959994838328416</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <v>32.24</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <v>36.46</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="35">
         <v>32.799999999999997</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="35">
         <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>2</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="32">
         <v>1E-4</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>5650</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>12000</v>
       </c>
       <c r="E19">
@@ -4419,30 +5185,30 @@
         <f t="shared" si="0"/>
         <v>4.0791812460476251</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="35">
         <v>28.46</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <v>36.44</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="35">
         <v>30.5</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
+      <c r="A20" s="31">
         <v>2</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="32">
         <v>1E-3</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>45100</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="37">
         <v>155000</v>
       </c>
       <c r="E20">
@@ -4453,30 +5219,30 @@
         <f t="shared" si="0"/>
         <v>5.1903316981702918</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <v>24.79</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <v>36.56</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="35">
         <v>27.1</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="35">
         <v>30.9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>2</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="32">
         <v>0.01</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>453000</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="37">
         <v>1480000</v>
       </c>
       <c r="E21">
@@ -4487,30 +5253,30 @@
         <f t="shared" si="0"/>
         <v>6.1702617153949575</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <v>21.36</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>36.520000000000003</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="35">
         <v>23.4</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="35">
         <v>30.2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>2</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="32">
         <v>0.1</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>2640000</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>13200000</v>
       </c>
       <c r="E22">
@@ -4521,132 +5287,132 @@
         <f t="shared" si="0"/>
         <v>7.1205739312058496</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="35">
         <v>18.02</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="35">
         <v>36.520000000000003</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="35">
         <v>20.5</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="35">
         <v>29.7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>2</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="32">
         <v>1</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>39500000</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>6</v>
+      <c r="D23" s="37" t="s">
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>7.5965970956264606</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <v>14.88</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>37.21</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="35">
         <v>16.7</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="35">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>3</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="32">
         <v>1E-10</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35">
         <v>37.14</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37">
+      <c r="I24" s="35"/>
+      <c r="J24" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="33">
+      <c r="A25" s="31">
         <v>3</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="32">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="30">
+      <c r="G25" s="39"/>
+      <c r="H25" s="28">
         <v>37.22</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="37">
+      <c r="I25" s="40"/>
+      <c r="J25" s="35">
         <v>31.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="33">
+      <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="32">
         <v>1E-8</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35">
         <v>36.54</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="37">
+      <c r="I26" s="41"/>
+      <c r="J26" s="35">
         <v>31.8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="33">
+      <c r="A27" s="31">
         <v>3</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="32">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="37">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="35">
         <v>39.659999999999997</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <v>36.83</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="33">
+      <c r="A28" s="31">
         <v>3</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="32">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="37">
         <v>103</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="37">
         <v>146</v>
       </c>
       <c r="E28">
@@ -4657,30 +5423,30 @@
         <f t="shared" si="0"/>
         <v>2.1643528557844371</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="35">
         <v>35.409999999999997</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>36.99</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="35">
         <v>35.4</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="35">
         <v>31.8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>3</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="37">
         <v>792</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="37">
         <v>833</v>
       </c>
       <c r="E29">
@@ -4691,30 +5457,30 @@
         <f t="shared" si="0"/>
         <v>2.9206450014067875</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="35">
         <v>32.5</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="35">
         <v>36.58</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="35">
         <v>33</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="35">
         <v>31.8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="33">
+      <c r="A30" s="31">
         <v>3</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>1E-4</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>6550</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="37">
         <v>8500</v>
       </c>
       <c r="E30">
@@ -4725,30 +5491,30 @@
         <f t="shared" si="0"/>
         <v>3.9294189257142929</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="35">
         <v>28.66</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="35">
         <v>36.130000000000003</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="35">
         <v>30</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="35">
         <v>31.7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="33">
+      <c r="A31" s="31">
         <v>3</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="32">
         <v>1E-3</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>44800</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="37">
         <v>89100</v>
       </c>
       <c r="E31">
@@ -4759,30 +5525,30 @@
         <f t="shared" si="0"/>
         <v>4.9498777040368749</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="35">
         <v>25.53</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <v>36.479999999999997</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="35">
         <v>27.1</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="35">
         <v>30.9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="33">
+      <c r="A32" s="31">
         <v>3</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="32">
         <v>0.01</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>485000</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="37">
         <v>1300000</v>
       </c>
       <c r="E32">
@@ -4793,30 +5559,30 @@
         <f t="shared" si="0"/>
         <v>6.1139433523068369</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="35">
         <v>21.34</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="35">
         <v>36.31</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="35">
         <v>23.4</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="35">
         <v>30.4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="33">
+      <c r="A33" s="31">
         <v>3</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="32">
         <v>0.1</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>4110000</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="37">
         <v>13600000</v>
       </c>
       <c r="E33">
@@ -4827,54 +5593,54 @@
         <f t="shared" si="0"/>
         <v>7.1335389083702179</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="35">
         <v>18.04</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="35">
         <v>36.590000000000003</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="36">
         <v>20</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="35">
         <v>29.9</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="33">
+      <c r="A34" s="31">
         <v>3</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="32">
         <v>1</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>45400000</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>6</v>
+      <c r="D34" s="37" t="s">
+        <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
         <v>7.6570558528571038</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="35">
         <v>14.25</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="35">
         <v>36.54</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="35">
         <v>16.600000000000001</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="35">
         <v>30.1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="44"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
